--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2371202.120795499</v>
+        <v>2367045.934487532</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>287.6030203759245</v>
       </c>
       <c r="F2" t="n">
-        <v>355.9709766755862</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504416</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885173</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833737</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>88.12306156662299</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>285.7357164430461</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>42.04644123640404</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>134.0742879955914</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>48.87515629125906</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>181.0919561226084</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>64.83556544767973</v>
@@ -1186,7 +1186,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>303.3731779715996</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.0255660492899</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>66.49379608654161</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>67.75987840060694</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174149</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>118.4312223122611</v>
+        <v>160.1597912951064</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701368</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>37.4050105844298</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>59.00369384633011</v>
       </c>
       <c r="W19" t="n">
-        <v>113.0992099793454</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>49.33251894259045</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>97.984130622241</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>25.26322697488565</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.57516893523083</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>35.66650366117387</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>80.25286948725312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>124.936238874645</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573447</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>45.17596778975034</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>65.06198119183985</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>887.9329408788699</v>
+        <v>1264.93819105164</v>
       </c>
       <c r="C2" t="n">
-        <v>518.9704239384582</v>
+        <v>1264.93819105164</v>
       </c>
       <c r="D2" t="n">
-        <v>518.9704239384582</v>
+        <v>1264.93819105164</v>
       </c>
       <c r="E2" t="n">
-        <v>518.9704239384582</v>
+        <v>974.430089661817</v>
       </c>
       <c r="F2" t="n">
-        <v>159.4037808318055</v>
+        <v>563.4441848722093</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640841</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640841</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073759</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723707</v>
+        <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>692.723165690562</v>
+        <v>692.7231656905637</v>
       </c>
       <c r="M2" t="n">
-        <v>988.7937322481642</v>
+        <v>988.7937322481667</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.268838483749</v>
+        <v>1294.268838483752</v>
       </c>
       <c r="O2" t="n">
-        <v>1935.292048103643</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2454.177096482513</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4372,10 +4372,10 @@
         <v>1651.538031115761</v>
       </c>
       <c r="X2" t="n">
-        <v>1278.072272854682</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="Y2" t="n">
-        <v>887.9329408788699</v>
+        <v>1651.538031115761</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093829</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369552</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072339</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>900.0914145104889</v>
+        <v>408.1293476730608</v>
       </c>
       <c r="M3" t="n">
-        <v>1541.114624130383</v>
+        <v>672.0688791685486</v>
       </c>
       <c r="N3" t="n">
-        <v>1826.448494563715</v>
+        <v>1313.092088788443</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925576</v>
+        <v>1941.820736623864</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4442,10 +4442,10 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.7386194637149</v>
+        <v>585.7327293170983</v>
       </c>
       <c r="C4" t="n">
-        <v>167.7386194637149</v>
+        <v>585.7327293170983</v>
       </c>
       <c r="D4" t="n">
-        <v>167.7386194637149</v>
+        <v>435.6160899047626</v>
       </c>
       <c r="E4" t="n">
-        <v>167.7386194637149</v>
+        <v>287.7029963223695</v>
       </c>
       <c r="F4" t="n">
-        <v>167.7386194637149</v>
+        <v>140.8130488244591</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.034527330184</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159871</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341311</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666712</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092719</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357427</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993471</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1086.791150136559</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1086.791150136559</v>
+        <v>1022.065682353225</v>
       </c>
       <c r="V4" t="n">
-        <v>1086.791150136559</v>
+        <v>767.3811941473381</v>
       </c>
       <c r="W4" t="n">
-        <v>798.1692143355021</v>
+        <v>767.3811941473381</v>
       </c>
       <c r="X4" t="n">
-        <v>570.1796634374848</v>
+        <v>767.3811941473381</v>
       </c>
       <c r="Y4" t="n">
-        <v>349.3870842939547</v>
+        <v>767.3811941473381</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.3109336851148</v>
+        <v>1358.013526177226</v>
       </c>
       <c r="C5" t="n">
-        <v>178.3484167447031</v>
+        <v>1358.013526177226</v>
       </c>
       <c r="D5" t="n">
-        <v>135.8772639806586</v>
+        <v>1358.013526177226</v>
       </c>
       <c r="E5" t="n">
-        <v>135.8772639806586</v>
+        <v>972.2252735789816</v>
       </c>
       <c r="F5" t="n">
-        <v>128.9317632314552</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719912</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719912</v>
@@ -4567,22 +4567,22 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2381.347406599813</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.347406599813</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V5" t="n">
-        <v>2050.284519256242</v>
+        <v>2134.752698217159</v>
       </c>
       <c r="W5" t="n">
-        <v>1697.515863986128</v>
+        <v>2134.752698217159</v>
       </c>
       <c r="X5" t="n">
-        <v>1324.050105725048</v>
+        <v>2134.752698217159</v>
       </c>
       <c r="Y5" t="n">
-        <v>933.9107737492366</v>
+        <v>1744.613366241348</v>
       </c>
     </row>
     <row r="6">
@@ -4631,43 +4631,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>150.321083297468</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421434</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>1240.281905962037</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1630.69146728778</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1965.620148003311</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2215.096875868329</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.4473908899379</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C7" t="n">
-        <v>200.4473908899379</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D7" t="n">
-        <v>200.4473908899379</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E7" t="n">
-        <v>200.4473908899379</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>200.4473908899379</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4752,25 +4752,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1597.614825415232</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1374.680250957214</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1085.562473967612</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>830.8779857617251</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>830.8779857617251</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="X7" t="n">
-        <v>602.8884348637077</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.0958557201776</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1229.530453193509</v>
+        <v>1248.893732126065</v>
       </c>
       <c r="C8" t="n">
-        <v>1229.530453193509</v>
+        <v>879.9312151856534</v>
       </c>
       <c r="D8" t="n">
-        <v>1229.530453193509</v>
+        <v>521.6655165789028</v>
       </c>
       <c r="E8" t="n">
-        <v>843.7422005952644</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="F8" t="n">
-        <v>432.7562958056569</v>
+        <v>128.9317632314552</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
         <v>117.2903254719912</v>
@@ -4804,13 +4804,13 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
         <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4822,7 +4822,7 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
         <v>2568.493631507462</v>
@@ -4834,22 +4834,22 @@
         <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2257.170226019558</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V8" t="n">
-        <v>1926.107338675987</v>
+        <v>2134.752698217159</v>
       </c>
       <c r="W8" t="n">
-        <v>1619.66978516932</v>
+        <v>1781.984042947045</v>
       </c>
       <c r="X8" t="n">
-        <v>1619.66978516932</v>
+        <v>1781.984042947045</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.530453193509</v>
+        <v>1635.493572190187</v>
       </c>
     </row>
     <row r="9">
@@ -4868,40 +4868,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>150.321083297468</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>942.9699568457227</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1309.275846338048</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1699.68540766379</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>2034.614088379321</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2284.09081624434</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>622.842788120441</v>
+        <v>438.0181282555286</v>
       </c>
       <c r="C10" t="n">
-        <v>453.9066051925341</v>
+        <v>269.0819453276217</v>
       </c>
       <c r="D10" t="n">
-        <v>453.9066051925341</v>
+        <v>118.965305915286</v>
       </c>
       <c r="E10" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
@@ -4986,28 +4986,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1348.412641916872</v>
+        <v>1357.865893164276</v>
       </c>
       <c r="V10" t="n">
-        <v>1093.728153710985</v>
+        <v>1357.865893164276</v>
       </c>
       <c r="W10" t="n">
-        <v>1093.728153710985</v>
+        <v>1068.448723127316</v>
       </c>
       <c r="X10" t="n">
-        <v>1025.283832094211</v>
+        <v>840.4591722292985</v>
       </c>
       <c r="Y10" t="n">
-        <v>804.4912529506807</v>
+        <v>619.6665930857683</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279809</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853368</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580267</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.91737983267</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487574</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510515</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854713</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648826</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611865</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1024.656698326753</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>803.8641191832229</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096656</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572603</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>527.7722521572603</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>527.7722521572603</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>380.8823046593499</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>213.6862053742298</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5533,34 +5533,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>542.9134462654469</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C19" t="n">
         <v>929.7309773356195</v>
@@ -5670,55 +5670,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W19" t="n">
-        <v>1319.459739407057</v>
+        <v>1339.368993063877</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3160.164713532177</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>2991.22853060427</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>2941.397703389533</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807139</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309229</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024109</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866307</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650998</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305902</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328844</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673042</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467155</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430194</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532177</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>3160.164713532177</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.843151638089</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>422.7903292978464</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>274.8772357154533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611859</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>2878.328163333972</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>3475.706650960524</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>4103.304614515131</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>4655.214344754419</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>4655.214344754419</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4655.214344754419</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3079.453861511889</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2910.517678583983</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>2760.401039171647</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>2612.487945589254</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F28" t="n">
-        <v>2612.487945589254</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2445.291846304134</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3999.301626420637</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3709.884456383676</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3481.894905485659</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3261.102326342129</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3175.341129796739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3006.404946868832</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.447361044447</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951537</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>984.5772922261136</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>815.6411092982067</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>221.3431781811715</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969303</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2940.578503903501</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C37" t="n">
-        <v>2940.578503903501</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>2790.461864491166</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2642.548770908772</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650996</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673938</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018136</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>3860.426268812249</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>3571.009098775288</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>3343.019547877271</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>3122.226968733741</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
@@ -7180,46 +7180,46 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.843151638089</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>741.843151638089</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>591.7265122257533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>443.8134186433601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611859</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2334.285089135946</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7627,61 +7627,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>2567.280686761779</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>3062.606292977538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3659.984780604089</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3659.984780604089</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4211.894510843376</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4635.517660338444</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>915.1035305473703</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>746.1673476194634</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>596.0507082071276</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>448.1376146247345</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>301.2476671268241</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>301.2476671268241</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>159.5358359690222</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473703</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>369.6030205083437</v>
+        <v>151.6735093079758</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.90728115092719</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159752</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660675</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945059</v>
       </c>
       <c r="O3" t="n">
-        <v>290.0325339499012</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>204.6347509527482</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>35.3897227018706</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>277.4922425530995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>207.1027101249441</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>35.3897227018706</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>347.1830914177568</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.7491560325416</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-3.282327221323107e-14</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>107.2784330767761</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>102.8897022617941</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>193.1339494774979</v>
       </c>
       <c r="W19" t="n">
-        <v>173.4237883572456</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>99.2829540756219</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>47.43691740069025</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>115.0314858713382</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>127.2568112467065</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>112.9489693570385</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>65.16817853567812</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>20.48480914828626</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>45.44677382459261</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>135.8503182118943</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>16.20385512672567</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>854691.4434515939</v>
+        <v>854691.4434515937</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>812636.0953751174</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675047</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675048</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753976</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898933</v>
+        <v>172764.3597898924</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457512</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260478</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042355</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151601</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26426,16 +26426,16 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695073</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695004</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="H4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531694993</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
@@ -26444,22 +26444,22 @@
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.48053169503</v>
+        <v>6287.480531695003</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699087</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-573032.5221893362</v>
+        <v>-573032.5221893368</v>
       </c>
       <c r="C6" t="n">
-        <v>220469.1235215614</v>
+        <v>220469.1235215623</v>
       </c>
       <c r="D6" t="n">
-        <v>393233.4833114548</v>
+        <v>393233.4833114547</v>
       </c>
       <c r="E6" t="n">
-        <v>-2938.928333848671</v>
+        <v>-3286.307588205618</v>
       </c>
       <c r="F6" t="n">
-        <v>497949.9394119022</v>
+        <v>497602.5601575452</v>
       </c>
       <c r="G6" t="n">
-        <v>497949.9394119025</v>
+        <v>497602.5601575452</v>
       </c>
       <c r="H6" t="n">
-        <v>497949.9394119022</v>
+        <v>497602.560157545</v>
       </c>
       <c r="I6" t="n">
-        <v>497949.9394119019</v>
+        <v>497602.5601575452</v>
       </c>
       <c r="J6" t="n">
-        <v>328535.9225858541</v>
+        <v>328188.5433314972</v>
       </c>
       <c r="K6" t="n">
-        <v>497949.9394119022</v>
+        <v>497602.5601575453</v>
       </c>
       <c r="L6" t="n">
-        <v>497949.9394119024</v>
+        <v>497602.560157545</v>
       </c>
       <c r="M6" t="n">
-        <v>367065.4825076667</v>
+        <v>366718.10325331</v>
       </c>
       <c r="N6" t="n">
-        <v>497949.9394119024</v>
+        <v>497602.560157545</v>
       </c>
       <c r="O6" t="n">
-        <v>497949.9394119026</v>
+        <v>497602.5601575451</v>
       </c>
       <c r="P6" t="n">
-        <v>497949.9394119022</v>
+        <v>497602.560157545</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26798,19 +26798,19 @@
         <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522348</v>
+        <v>189.7254341522338</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644026</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352457</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644029</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644026</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>94.32734969633731</v>
       </c>
       <c r="F2" t="n">
-        <v>50.90506906612524</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>78.51549311618433</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7872818935449004</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>312.6366003842789</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>272.80175774612</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27824,19 +27824,19 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>145.610013042832</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>105.4310422139826</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>45.86779074581341</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.2123726067637</v>
       </c>
     </row>
     <row r="9">
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>79.94016656002756</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>157.9497769884302</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.545830542411375e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28286,7 +28286,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>6.41004286687045e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090891</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066895</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611369</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014937</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682851</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658683</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485895</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775956</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330904</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325346</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282124</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072712</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674104</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307771</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261556</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.262332560511</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911972</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240732</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257154</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028909</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969222</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993425</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777202</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855589</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600313</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932505</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519961</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567077</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965187</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189612</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31290,37 +31290,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31384,19 +31384,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31442,25 +31442,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31527,37 +31527,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31621,19 +31621,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31679,25 +31679,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>430.4001870301144</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>570.6116741576914</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>233.3139244897918</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33031,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.6580975439386</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>188.4731159523453</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>309.7666854143572</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>264.8708611242907</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33973,13 +33973,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>362.5355639238077</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34207,13 +34207,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34374,7 +34374,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175677</v>
@@ -34447,7 +34447,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>195.8560084902126</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.944966752077</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161564</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315064</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410124</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692774</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352464</v>
+        <v>429.5686803348794</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938087</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.1875451095681</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597328</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>122.6495881517966</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.548298084096</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
+        <v>266.6055873691795</v>
+      </c>
+      <c r="N3" t="n">
         <v>647.4981915352464</v>
       </c>
-      <c r="N3" t="n">
-        <v>288.2160307407399</v>
-      </c>
       <c r="O3" t="n">
-        <v>531.2496569311721</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289993</v>
+        <v>378.7044084817479</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686939</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883111</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550911</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944467</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>99.51639189358414</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>647.4981915352464</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>325.1323963547063</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,10 +35102,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35114,7 +35114,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>99.51639189358414</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>647.4981915352464</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
         <v>370.0059489821469</v>
@@ -35266,13 +35266,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>280.7788422623038</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,10 +35339,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35351,7 +35351,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>291.8458072502402</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060519</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>432.0572943778172</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>94.75954470991759</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.97859357997467</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>45.87687150790087</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>171.212305634483</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>127.0294221499317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37548,7 +37548,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
         <v>735.300110790295</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>222.5537898377862</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
         <v>735.300110790295</v>
@@ -38095,7 +38095,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>55.87423440419106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2367045.934487532</v>
+        <v>2368806.464790318</v>
       </c>
     </row>
     <row r="7">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>287.6030203759245</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>46.92764478655096</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>84.33017748417652</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>88.12306156662299</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>134.0742879955914</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>327.9406796745654</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>74.37892565520181</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>181.0919561226084</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>311.0721730274416</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.0255660492899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>66.49379608654161</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>208.0372445833285</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507421</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>160.1597912951064</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>218.8658348647368</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V19" t="n">
-        <v>59.00369384633011</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2247,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>80.67842139643643</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>28.75188085812005</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>100.5140508960355</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>134.3852063573447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>151.855586233358</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>4.019807611472697</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4309,46 +4309,46 @@
         <v>1264.93819105164</v>
       </c>
       <c r="C2" t="n">
-        <v>1264.93819105164</v>
+        <v>895.975674111228</v>
       </c>
       <c r="D2" t="n">
-        <v>1264.93819105164</v>
+        <v>895.975674111228</v>
       </c>
       <c r="E2" t="n">
-        <v>974.430089661817</v>
+        <v>510.1874215129838</v>
       </c>
       <c r="F2" t="n">
-        <v>563.4441848722093</v>
+        <v>99.20151672337624</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723717</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>692.7231656905637</v>
+        <v>928.7179450719127</v>
       </c>
       <c r="M2" t="n">
-        <v>988.7937322481667</v>
+        <v>1332.174964921827</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.268838483752</v>
+        <v>1973.198174541721</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>2248.314393858356</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2448.618721147459</v>
       </c>
       <c r="Q2" t="n">
         <v>2550.866182466514</v>
@@ -4415,19 +4415,19 @@
         <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.1293476730608</v>
+        <v>775.2612895234854</v>
       </c>
       <c r="M3" t="n">
-        <v>672.0688791685486</v>
+        <v>1416.284499143379</v>
       </c>
       <c r="N3" t="n">
-        <v>1313.092088788443</v>
+        <v>1723.657007090154</v>
       </c>
       <c r="O3" t="n">
-        <v>1941.820736623864</v>
+        <v>2352.385654925575</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>585.7327293170983</v>
+        <v>702.6704384666226</v>
       </c>
       <c r="C4" t="n">
-        <v>585.7327293170983</v>
+        <v>617.4884410078585</v>
       </c>
       <c r="D4" t="n">
-        <v>435.6160899047626</v>
+        <v>467.3718015955227</v>
       </c>
       <c r="E4" t="n">
-        <v>287.7029963223695</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="F4" t="n">
-        <v>140.8130488244591</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
@@ -4515,25 +4515,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="U4" t="n">
-        <v>1022.065682353225</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="V4" t="n">
-        <v>767.3811941473381</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="W4" t="n">
-        <v>767.3811941473381</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="X4" t="n">
-        <v>767.3811941473381</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="Y4" t="n">
-        <v>767.3811941473381</v>
+        <v>884.3189032968623</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1358.013526177226</v>
+        <v>1872.330038733293</v>
       </c>
       <c r="C5" t="n">
-        <v>1358.013526177226</v>
+        <v>1503.367521792881</v>
       </c>
       <c r="D5" t="n">
-        <v>1358.013526177226</v>
+        <v>1145.101823186131</v>
       </c>
       <c r="E5" t="n">
-        <v>972.2252735789816</v>
+        <v>759.3135705878867</v>
       </c>
       <c r="F5" t="n">
-        <v>836.796699846061</v>
+        <v>752.3680698386833</v>
       </c>
       <c r="G5" t="n">
         <v>421.1148580461929</v>
@@ -4567,16 +4567,16 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
         <v>1673.478115539971</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.752698217159</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.752698217159</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.752698217159</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="Y5" t="n">
-        <v>1744.613366241348</v>
+        <v>2258.929878797415</v>
       </c>
     </row>
     <row r="6">
@@ -4631,22 +4631,22 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>150.321083297468</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
         <v>598.8031573431335</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.6319074814764</v>
+        <v>770.9762872584978</v>
       </c>
       <c r="C7" t="n">
-        <v>664.6957245535696</v>
+        <v>770.9762872584978</v>
       </c>
       <c r="D7" t="n">
-        <v>514.5790851412338</v>
+        <v>620.859647846162</v>
       </c>
       <c r="E7" t="n">
-        <v>366.6659915588407</v>
+        <v>620.859647846162</v>
       </c>
       <c r="F7" t="n">
-        <v>219.7760440609304</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4749,28 +4749,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1469.732079976357</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1180.614302986755</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153878</v>
+        <v>1180.614302986755</v>
       </c>
       <c r="W7" t="n">
-        <v>1464.062502353264</v>
+        <v>1180.614302986755</v>
       </c>
       <c r="X7" t="n">
-        <v>1236.072951455246</v>
+        <v>952.6247520887375</v>
       </c>
       <c r="Y7" t="n">
-        <v>1015.280372311716</v>
+        <v>952.6247520887375</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.893732126065</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="C8" t="n">
-        <v>879.9312151856534</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D8" t="n">
-        <v>521.6655165789028</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E8" t="n">
-        <v>135.8772639806586</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9317632314552</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4831,25 +4831,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.752698217159</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W8" t="n">
-        <v>1781.984042947045</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X8" t="n">
-        <v>1781.984042947045</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="Y8" t="n">
-        <v>1635.493572190187</v>
+        <v>1532.695465266221</v>
       </c>
     </row>
     <row r="9">
@@ -4868,22 +4868,22 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>150.321083297468</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
         <v>598.8031573431335</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.0181282555286</v>
+        <v>517.2966674002379</v>
       </c>
       <c r="C10" t="n">
-        <v>269.0819453276217</v>
+        <v>348.360484472331</v>
       </c>
       <c r="D10" t="n">
-        <v>118.965305915286</v>
+        <v>348.360484472331</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
         <v>51.79985532281972</v>
@@ -5001,13 +5001,13 @@
         <v>1357.865893164276</v>
       </c>
       <c r="W10" t="n">
-        <v>1068.448723127316</v>
+        <v>1147.727262272025</v>
       </c>
       <c r="X10" t="n">
-        <v>840.4591722292985</v>
+        <v>919.7377113740077</v>
       </c>
       <c r="Y10" t="n">
-        <v>619.6665930857683</v>
+        <v>698.9451322304776</v>
       </c>
     </row>
     <row r="11">
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5120,19 +5120,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,19 +5357,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1823.430183384634</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1568.745695178747</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1279.328525141787</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
         <v>929.7309773356195</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1628.786163100837</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1339.368993063877</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1111.379442165859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5743,16 +5743,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.0218491516692</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.3100179938673</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,19 +6071,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6308,19 +6308,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6463,10 +6463,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6785,13 +6785,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6843,13 +6843,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708873</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
         <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.395944601127</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,28 +7186,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7326,49 +7326,49 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
         <v>1202.091371290588</v>
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.7594328861248</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>390.823249958218</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803938</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037393</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>108.4711649417288</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
-        <v>151.6735093079758</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8063,22 +8063,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.8926041660669</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945059</v>
+        <v>22.26125001357735</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>204.6347509527482</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>35.3897227018706</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>35.3897227018706</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>40.32043864788577</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>67.31863952450735</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V19" t="n">
-        <v>193.1339494774979</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.5874149221290992</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>125.1956044930016</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45.44677382459261</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>65.54986409393027</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>62.35543909864896</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812636.0953751171</v>
+        <v>812636.0953751173</v>
       </c>
     </row>
     <row r="7">
@@ -26322,7 +26322,7 @@
         <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675044</v>
@@ -26331,25 +26331,25 @@
         <v>605359.9497675044</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="L2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="M2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675041</v>
@@ -26368,13 +26368,13 @@
         <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
@@ -26438,25 +26438,25 @@
         <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
+        <v>6287.480531695104</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695003</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26524,46 +26524,46 @@
         <v>-573032.5221893368</v>
       </c>
       <c r="C6" t="n">
-        <v>220469.1235215623</v>
+        <v>220469.1235215624</v>
       </c>
       <c r="D6" t="n">
         <v>393233.4833114547</v>
       </c>
       <c r="E6" t="n">
-        <v>-3286.307588205618</v>
+        <v>-2973.666259284146</v>
       </c>
       <c r="F6" t="n">
-        <v>497602.5601575452</v>
+        <v>497915.2014864665</v>
       </c>
       <c r="G6" t="n">
-        <v>497602.5601575452</v>
+        <v>497915.2014864665</v>
       </c>
       <c r="H6" t="n">
-        <v>497602.560157545</v>
+        <v>497915.2014864665</v>
       </c>
       <c r="I6" t="n">
-        <v>497602.5601575452</v>
+        <v>497915.2014864662</v>
       </c>
       <c r="J6" t="n">
-        <v>328188.5433314972</v>
+        <v>328501.1846604184</v>
       </c>
       <c r="K6" t="n">
-        <v>497602.5601575453</v>
+        <v>497915.2014864663</v>
       </c>
       <c r="L6" t="n">
-        <v>497602.560157545</v>
+        <v>497915.2014864666</v>
       </c>
       <c r="M6" t="n">
-        <v>366718.10325331</v>
+        <v>367030.7445822312</v>
       </c>
       <c r="N6" t="n">
-        <v>497602.560157545</v>
+        <v>497915.2014864663</v>
       </c>
       <c r="O6" t="n">
-        <v>497602.5601575451</v>
+        <v>497915.2014864659</v>
       </c>
       <c r="P6" t="n">
-        <v>497602.560157545</v>
+        <v>497915.2014864662</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,10 +26995,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>94.32734969633731</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>365.3600939084932</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>82.91664361445132</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>78.51549311618433</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>272.80175774612</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>83.58434370730396</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>146.3263030582366</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>105.4310422139826</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>54.20071874356591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.2123726067637</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>79.94016656002756</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,7 +28028,7 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>78.48575375326246</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31290,37 +31290,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31384,19 +31384,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31442,25 +31442,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31527,37 +31527,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31621,19 +31621,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31679,25 +31679,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
         <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>407.532343282742</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>429.5686803348794</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
         <v>39.52180169138521</v>
@@ -34783,22 +34783,22 @@
         <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>310.4772807543179</v>
       </c>
       <c r="O3" t="n">
         <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>378.7044084817479</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>99.51639189358414</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35029,13 +35029,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,10 +35102,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35114,7 +35114,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>99.51639189358414</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
@@ -35266,13 +35266,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,10 +35339,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35351,7 +35351,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
